--- a/tdcrpy/validation/Validation_QuenchingFct.xlsx
+++ b/tdcrpy/validation/Validation_QuenchingFct.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python_modules\TDCRPy\TDCRPy\tdcrpy\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523B7C39-0F5E-4B48-A5C7-8141DF28A6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CA7252-8014-4AA6-990B-6ED786E8EAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="E_quench_e" sheetId="1" r:id="rId1"/>
-    <sheet name="E_quench_a" sheetId="2" r:id="rId2"/>
+    <sheet name="Electrons" sheetId="3" r:id="rId1"/>
+    <sheet name="E_quench_e" sheetId="1" r:id="rId2"/>
+    <sheet name="Alpha" sheetId="4" r:id="rId3"/>
+    <sheet name="E_quench_a" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -89,7 +91,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00000%"/>
+    <numFmt numFmtId="164" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -170,8 +172,8 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -182,28 +184,28 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000%"/>
+      <numFmt numFmtId="164" formatCode="0.00000%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000%"/>
+      <numFmt numFmtId="164" formatCode="0.00000%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000%"/>
+      <numFmt numFmtId="164" formatCode="0.00000%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000%"/>
+      <numFmt numFmtId="164" formatCode="0.00000%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000%"/>
+      <numFmt numFmtId="164" formatCode="0.00000%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000%"/>
+      <numFmt numFmtId="164" formatCode="0.00000%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000%"/>
+      <numFmt numFmtId="164" formatCode="0.00000%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000%"/>
+      <numFmt numFmtId="164" formatCode="0.00000%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -216,6 +218,3144 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18011254256474377"/>
+          <c:y val="2.2676167699844266E-2"/>
+          <c:w val="0.76675584030182675"/>
+          <c:h val="0.8404265921010623"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>"E = 5 keV"</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>E_quench_e!$A$10:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>E_quench_e!$C$10:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.23129618179581546</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.104584584837633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4535161533261416E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4792799483597907E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6096982644116018E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9325505748050151E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3981100507229893E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9151121477961652E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9805115044735366E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.801551342003556E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8005197953671086E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8001409225032461E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.0005463545251843E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0001899391507436E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-40F7-4833-A4FD-B07A4939278A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>"E = 10 keV"</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>E_quench_e!$F$10:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>E_quench_e!$H$10:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.20512838609803863</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6645598631066143E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4889390842754109E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5204668335967675E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5832459730403858E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7104963911233071E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3114608867537125E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3003637725222994E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2554510536054728E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.8011589892310624E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8003276237995607E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8000688486230487E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.0002259235101292E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0000697268661725E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-40F7-4833-A4FD-B07A4939278A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>"E = 100 keV"</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>E_quench_e!$K$10:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>E_quench_e!$M$10:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.14623070915018954</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2644192253643602E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9359700969656455E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4759115970349068E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.30286582434303E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7071428713896228E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.199711932560632E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.263543652735958E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1659929854545013E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0520300873007038E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0812394907229219E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8520673801036835E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.9554090974820468E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.983263475808684E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-40F7-4833-A4FD-B07A4939278A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>"E = 1 MeV"</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>E_quench_e!$P$10:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>E_quench_e!$R$10:$R$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.1204866299042282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9094420707063833E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4432708841146455E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2659873444514913E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5761166380002845E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7231128243796476E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.38012716879099E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8478430030327608E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5341076319640443E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1161464459119586E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8150208169506215E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8870405789073175E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.3080843087390832E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1222814385056807E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-40F7-4833-A4FD-B07A4939278A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="462661216"/>
+        <c:axId val="462648256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="462661216"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="3600" i="1"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462648256"/>
+        <c:crossesAt val="1.0000000000000004E-6"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="462648256"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="3600"/>
+                  <a:t>Erreur</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462661216"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.61670436946219109"/>
+          <c:y val="8.1883004731622105E-2"/>
+          <c:w val="0.31767063295999143"/>
+          <c:h val="0.20340886651194268"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18011254256474377"/>
+          <c:y val="2.2676167699844266E-2"/>
+          <c:w val="0.76675584030182675"/>
+          <c:h val="0.8404265921010623"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>"E = 10 keV"</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>E_quench_a!$A$10:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>E_quench_a!$C$10:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.11481301081155015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4278424869504294E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1027940114043631E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0401950476683686E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1729271458966775E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0615520850633118E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0286673853736605E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1303759926746295E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0391602820701848E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0091759301444903E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9426474299840706E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8534361500233132E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.2374107821525655E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0890147655338041E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B56-4636-B083-FB722EF4A494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>"E = 100 keV"</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>E_quench_a!$F$10:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>E_quench_a!$H$10:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.16442191170662879</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5613892774571534E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8727873091928702E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4093304984099664E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9829623432642318E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7802959882679001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3861579015987946E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9114311200624279E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7465402485304935E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3591440442795033E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6564438614857835E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4960676227925305E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1093422957575427E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1600006868147688E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3B56-4636-B083-FB722EF4A494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>"E = 1 MeV"</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>E_quench_a!$K$10:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>E_quench_a!$M$10:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.36551257625828804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15991762603410309</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.645459394766128E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6621799812419411E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2849569886262735E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0108106280597475E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4773296123272726E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2298390749090338E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8843168882251042E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4149292716524329E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1824658966452795E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4333545917929484E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9702374320695881E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.3881102908845975E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3B56-4636-B083-FB722EF4A494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>"E = 5 MeV"</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>E_quench_a!$P$10:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>E_quench_a!$R$10:$R$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.34604127769187798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15578233141888931</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5900459063699115E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5944406315125734E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2170034831920029E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5959822034193909E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2388097158931863E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1023248186619039E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3298471630182078E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1346107145681081E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.044565583774304E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9149353386669361E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7396398687363757E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5230142440864114E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3B56-4636-B083-FB722EF4A494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="462661216"/>
+        <c:axId val="462648256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="462661216"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="3600" i="1"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462648256"/>
+        <c:crossesAt val="1.0000000000000004E-6"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="462648256"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="3600"/>
+                  <a:t>Erreur</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462661216"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.61670436946219109"/>
+          <c:y val="8.1883004731622105E-2"/>
+          <c:w val="0.31767063295999143"/>
+          <c:h val="0.20340886651194268"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{75BF1ACE-01FB-4234-9F86-80455CCE0B9B}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="104" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{68932504-44BB-40CB-A000-9559563EBB7B}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="11611429" cy="7585982"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6775D1D-8747-B3E6-5B06-8A38751C288E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="11611429" cy="7585982"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7242BC16-7519-3B60-7F0F-A50A61C19A84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -266,7 +3406,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D9EFD2E8-85AF-4D2F-BD7E-6D08386F9A28}" name="nE"/>
     <tableColumn id="2" xr3:uid="{63A059D8-EF49-4805-9141-AEF5D41BD836}" name="E quenched"/>
-    <tableColumn id="3" xr3:uid="{ABE4DA2C-535A-4814-B433-E705890888EA}" name="Err" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{ABE4DA2C-535A-4814-B433-E705890888EA}" name="Err" dataDxfId="4" dataCellStyle="Percent">
       <calculatedColumnFormula>Table149[[#This Row],[E quenched]]/B$27-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -280,7 +3420,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{85085BBB-365D-4417-9819-318C5153FAE3}" name="nE"/>
     <tableColumn id="2" xr3:uid="{D3081CD4-81C4-44FD-90E4-FE65BE847421}" name="E quenched"/>
-    <tableColumn id="3" xr3:uid="{4243C7D7-4E43-4812-8909-616235D97026}" name="Err" dataDxfId="4" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{4243C7D7-4E43-4812-8909-616235D97026}" name="Err" dataDxfId="3" dataCellStyle="Percent">
       <calculatedColumnFormula>Table15[[#This Row],[E quenched]]/G$27-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -294,7 +3434,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{789F780A-70C2-4EF6-88E7-1F52E0091540}" name="nE"/>
     <tableColumn id="2" xr3:uid="{86527323-54F5-48C1-9B78-1718F48EBB50}" name="E quenched"/>
-    <tableColumn id="3" xr3:uid="{269181E4-0041-48B0-94F8-60DFF1A7DE6D}" name="Err" dataDxfId="3" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{269181E4-0041-48B0-94F8-60DFF1A7DE6D}" name="Err" dataDxfId="2" dataCellStyle="Percent">
       <calculatedColumnFormula>Table136[[#This Row],[E quenched]]/L$27-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -308,7 +3448,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B90C1E61-B91F-4434-87AF-6D04464FE4EB}" name="nE"/>
     <tableColumn id="2" xr3:uid="{D5CEE5CC-2057-48A9-BAC2-1C109EDA62EC}" name="E quenched"/>
-    <tableColumn id="3" xr3:uid="{E0EABE80-8549-4372-841B-E0A29E6BF5E7}" name="Err" dataDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{E0EABE80-8549-4372-841B-E0A29E6BF5E7}" name="Err" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>Table147[[#This Row],[E quenched]]/B$27-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -322,7 +3462,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{611048C3-330C-4AA6-8632-F32420AB914E}" name="nE"/>
     <tableColumn id="2" xr3:uid="{98EFDD11-58DC-46CF-A045-7A2F5838496E}" name="E quenched"/>
-    <tableColumn id="3" xr3:uid="{22CA7802-AB25-407B-A711-54D3DCBCA415}" name="Err" dataDxfId="1" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{22CA7802-AB25-407B-A711-54D3DCBCA415}" name="Err" dataDxfId="0" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1368[[#This Row],[E quenched]]/Q$27-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -595,7 +3735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
@@ -1405,7 +4545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EFCD95-F6C7-4FEC-A751-FDD959571E62}">
   <dimension ref="A3:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
